--- a/Lead-CreateandVeriy.xlsx
+++ b/Lead-CreateandVeriy.xlsx
@@ -52,7 +52,7 @@
     <x:t>TestScenario_1</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_1.TestCase_1</x:t>
+    <x:t>Create_Lead_01</x:t>
   </x:si>
   <x:si>
     <x:t>1</x:t>
@@ -211,7 +211,7 @@
     <x:t>TestScenario_2</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
+    <x:t>Verify_Lead_01</x:t>
   </x:si>
   <x:si>
     <x:t>User should be able to click on Lead record</x:t>
@@ -618,7 +618,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="16.980625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="12.980625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="14.270625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
